--- a/UTS_HANAPI/Excel_Hanapi.xlsx
+++ b/UTS_HANAPI/Excel_Hanapi.xlsx
@@ -8,25 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanapi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658C5083-8C6D-45DE-8332-61802041119C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A3BDFE-BAFC-4A61-9664-D278062D1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
-  <si>
-    <t>SPK Pemilihan Sepeda Motor</t>
-  </si>
-  <si>
-    <t>Nama Sepeda Motor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>CC</t>
   </si>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t>Tertinggi</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sepeda Motor</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -302,11 +310,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +344,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -808,8 +838,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="6" t="s">
-        <v>0</v>
+      <c r="B1" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -818,28 +848,28 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>125</v>
@@ -848,18 +878,18 @@
         <v>24000000</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>110</v>
@@ -868,18 +898,18 @@
         <v>25000000</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>125</v>
@@ -888,18 +918,18 @@
         <v>20000000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>155</v>
@@ -908,18 +938,18 @@
         <v>35000000</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>110</v>
@@ -928,18 +958,18 @@
         <v>17000000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
         <v>250</v>
@@ -948,18 +978,18 @@
         <v>70000000</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>150</v>
@@ -968,18 +998,18 @@
         <v>32000000</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>125</v>
@@ -988,18 +1018,18 @@
         <v>25000000</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>155</v>
@@ -1008,18 +1038,18 @@
         <v>30000000</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3">
         <v>110</v>
@@ -1028,24 +1058,24 @@
         <v>15000000</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
@@ -1053,27 +1083,27 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3">
         <v>0.2</v>
@@ -1081,13 +1111,13 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="3">
         <v>0.15</v>
@@ -1095,13 +1125,13 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
         <v>0.3</v>
@@ -1109,13 +1139,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
         <v>0.15</v>
@@ -1123,7 +1153,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3">
         <v>0.2</v>
@@ -1131,30 +1161,30 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3">
         <v>125</v>
@@ -1163,19 +1193,21 @@
         <v>24000000</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>0.5695915278</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3">
         <v>110</v>
@@ -1184,19 +1216,21 @@
         <v>25000000</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5">
+        <v>0.53372015620000002</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3">
         <v>125</v>
@@ -1205,19 +1239,21 @@
         <v>20000000</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.59213964139999997</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3">
         <v>155</v>
@@ -1226,19 +1262,21 @@
         <v>35000000</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>0.61577194940000002</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3">
         <v>110</v>
@@ -1247,19 +1285,21 @@
         <v>17000000</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.54279246439999995</v>
+      </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3">
         <v>250</v>
@@ -1268,19 +1308,21 @@
         <v>70000000</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.6243792615</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3">
         <v>150</v>
@@ -1289,19 +1331,21 @@
         <v>32000000</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.56135779279999998</v>
+      </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3">
         <v>125</v>
@@ -1310,19 +1354,21 @@
         <v>25000000</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.54438730960000004</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3">
         <v>155</v>
@@ -1331,19 +1377,21 @@
         <v>30000000</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.59915993089999997</v>
+      </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3">
         <v>110</v>
@@ -1352,89 +1400,132 @@
         <v>15000000</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.5910971277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="G38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="10">
+        <v>5.7743971616999996</v>
+      </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C44" s="5">
+        <f>(H28/H38)</f>
+        <v>9.8640864465981859E-2</v>
+      </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C45" s="5">
+        <f>(H29/H38)</f>
+        <v>9.2428723077799382E-2</v>
+      </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="C46" s="5">
+        <f>(H30/H38)</f>
+        <v>0.1025457073385081</v>
+      </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C47" s="5">
+        <f>(H31/H38)</f>
+        <v>0.10663830910077458</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C48" s="5">
+        <f>(H32/H38)</f>
+        <v>9.3999849542770325E-2</v>
+      </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C49" s="5">
+        <f>(H33/H38)</f>
+        <v>0.10812890835450967</v>
+      </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="C50" s="5">
+        <f>(H34/H38)</f>
+        <v>9.7214960640970974E-2</v>
+      </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C51" s="5">
+        <f>(H35/H38)</f>
+        <v>9.4276042044834127E-2</v>
+      </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="C52" s="5">
+        <f>(H36/H38)</f>
+        <v>0.10376146879436425</v>
+      </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C53" s="5">
+        <f>(H37/H38)</f>
+        <v>0.10236516663948679</v>
+      </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C54" s="9">
+        <f>MAX(C44:C53)</f>
+        <v>0.10812890835450967</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1442,7 +1533,7 @@
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>